--- a/data/case1/5/Plm2_3.xlsx
+++ b/data/case1/5/Plm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.38305501292357746</v>
+        <v>-0.3879292809067465</v>
       </c>
       <c r="B1" s="0">
-        <v>0.38185988145109206</v>
+        <v>0.38669382708897615</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.262543413181616</v>
+        <v>-0.26219023848929801</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25944436626871337</v>
+        <v>0.25917392305462172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.12025531782220611</v>
+        <v>-0.15622098551378727</v>
       </c>
       <c r="B3" s="0">
-        <v>0.11973052018178265</v>
+        <v>0.15532093016392778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.10773052028433483</v>
+        <v>-0.14332093026568415</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10728466451307028</v>
+        <v>0.14251707231617772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10128466490865939</v>
+        <v>-0.13651707267725577</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10041519358900164</v>
+        <v>0.13491051500186124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.045268223668168961</v>
+        <v>-0.033942045191999171</v>
       </c>
       <c r="B6" s="0">
-        <v>0.045240068044804183</v>
+        <v>0.033927206050355263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.025240068520337999</v>
+        <v>-0.013927206495335298</v>
       </c>
       <c r="B7" s="0">
-        <v>0.025209669554305592</v>
+        <v>0.013917951223296754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0052096700310704236</v>
+        <v>0.0060820483310868312</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0052061558941227659</v>
+        <v>-0.006098392873437497</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0007938437009986643</v>
+        <v>0.01209839250156719</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.00079728097127595987</v>
+        <v>-0.012126874499260865</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0067972805664950897</v>
+        <v>-0.040057693823037255</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.006796599271751802</v>
+        <v>0.040032782823743673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.01129659887471135</v>
+        <v>-0.03553278318660702</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.011301515172782217</v>
+        <v>0.03549545661684661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.017301514768269133</v>
+        <v>-0.029495456988534396</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.017354710230584658</v>
+        <v>0.029390127054937487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.02335470982830401</v>
+        <v>-0.023390127430246821</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0233872032743907</v>
+        <v>0.023366289474902047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.035387202842197318</v>
+        <v>-0.011366289882548841</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.035464368565574667</v>
+        <v>0.01136139087411614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.041464368165982535</v>
+        <v>-0.005361391250897185</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.041587353304699981</v>
+        <v>0.0053602187825241288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.04758735290759164</v>
+        <v>0.00063978084046789618</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.047855587684974221</v>
+        <v>-0.00064017554585849012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090042094258411254</v>
+        <v>0.0066401751689584287</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995926710596</v>
+        <v>-0.0066422995748594005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10931646866791311</v>
+        <v>-0.11450358896206936</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1091506653620975</v>
+        <v>0.11430523021353167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.10015066575673615</v>
+        <v>-0.10530523057194019</v>
       </c>
       <c r="B19" s="0">
-        <v>0.098831590540494396</v>
+        <v>0.10370604253052518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.08983159094898685</v>
+        <v>-0.018014201995923074</v>
       </c>
       <c r="B20" s="0">
-        <v>0.089530855201942927</v>
+        <v>0.018004436896695175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.080530855613559993</v>
+        <v>-0.0090044372692457131</v>
       </c>
       <c r="B21" s="0">
-        <v>0.08010057819836458</v>
+        <v>0.0089999996270750948</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.13018904885123916</v>
+        <v>-0.093952937908863277</v>
       </c>
       <c r="B22" s="0">
-        <v>0.12950495033454068</v>
+        <v>0.093638118694084227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.12050495074404832</v>
+        <v>-0.084638119065450823</v>
       </c>
       <c r="B23" s="0">
-        <v>0.11931848241558995</v>
+        <v>0.08412757735491283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042129023460075743</v>
+        <v>-0.042127577904695457</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999407869915</v>
+        <v>0.041999999447278391</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094933005211537136</v>
+        <v>-0.09496847018120036</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094687941252665553</v>
+        <v>0.094720510246489198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088687941656619529</v>
+        <v>-0.088720510619221926</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088372146305239596</v>
+        <v>0.088400919940955447</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082372146710686156</v>
+        <v>-0.08240092031567281</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081291983272174573</v>
+        <v>0.081307647578885867</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075291983686215147</v>
+        <v>-0.075307647961865065</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074543520976702915</v>
+        <v>0.074550096590702886</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062543521427285143</v>
+        <v>-0.062550097010452888</v>
       </c>
       <c r="B29" s="0">
-        <v>0.06217236971079565</v>
+        <v>0.062174436722298054</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042172370205325382</v>
+        <v>-0.042174437186568436</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042020228786668667</v>
+        <v>0.042020423956663944</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027020229259122175</v>
+        <v>-0.027020424398731535</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000828956881051</v>
+        <v>0.027000831906768497</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060008294608966395</v>
+        <v>-0.0060008323809155328</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995732784583</v>
+        <v>0.0059999996041142367</v>
       </c>
     </row>
   </sheetData>
